--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
@@ -531,16 +531,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.377313</v>
+        <v>0.4401443333333333</v>
       </c>
       <c r="H2">
-        <v>1.131939</v>
+        <v>1.320433</v>
       </c>
       <c r="I2">
-        <v>0.08069727054576252</v>
+        <v>0.08872023983698565</v>
       </c>
       <c r="J2">
-        <v>0.08069727054576252</v>
+        <v>0.08872023983698567</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -549,28 +549,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.377313</v>
+        <v>0.4401443333333333</v>
       </c>
       <c r="N2">
-        <v>1.131939</v>
+        <v>1.320433</v>
       </c>
       <c r="O2">
-        <v>0.08069727054576252</v>
+        <v>0.08872023983698565</v>
       </c>
       <c r="P2">
-        <v>0.08069727054576252</v>
+        <v>0.08872023983698567</v>
       </c>
       <c r="Q2">
-        <v>0.142365099969</v>
+        <v>0.1937270341654444</v>
       </c>
       <c r="R2">
-        <v>1.281285899721</v>
+        <v>1.743543307489</v>
       </c>
       <c r="S2">
-        <v>0.006512049473535991</v>
+        <v>0.007871280956732256</v>
       </c>
       <c r="T2">
-        <v>0.006512049473535991</v>
+        <v>0.007871280956732259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.377313</v>
+        <v>0.4401443333333333</v>
       </c>
       <c r="H3">
-        <v>1.131939</v>
+        <v>1.320433</v>
       </c>
       <c r="I3">
-        <v>0.08069727054576252</v>
+        <v>0.08872023983698565</v>
       </c>
       <c r="J3">
-        <v>0.08069727054576252</v>
+        <v>0.08872023983698567</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>9.942261</v>
       </c>
       <c r="O3">
-        <v>0.708795549719184</v>
+        <v>0.6680231260820571</v>
       </c>
       <c r="P3">
-        <v>0.7087955497191839</v>
+        <v>0.6680231260820572</v>
       </c>
       <c r="Q3">
-        <v>1.250448108231</v>
+        <v>1.458676613223667</v>
       </c>
       <c r="R3">
-        <v>11.254032974079</v>
+        <v>13.128089519013</v>
       </c>
       <c r="S3">
-        <v>0.05719786623732146</v>
+        <v>0.05926717196265301</v>
       </c>
       <c r="T3">
-        <v>0.05719786623732145</v>
+        <v>0.05926717196265303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.377313</v>
+        <v>0.4401443333333333</v>
       </c>
       <c r="H4">
-        <v>1.131939</v>
+        <v>1.320433</v>
       </c>
       <c r="I4">
-        <v>0.08069727054576252</v>
+        <v>0.08872023983698565</v>
       </c>
       <c r="J4">
-        <v>0.08069727054576252</v>
+        <v>0.08872023983698567</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.98426</v>
+        <v>1.206805</v>
       </c>
       <c r="N4">
-        <v>2.95278</v>
+        <v>3.620415</v>
       </c>
       <c r="O4">
-        <v>0.2105071797350534</v>
+        <v>0.2432566340809571</v>
       </c>
       <c r="P4">
-        <v>0.2105071797350534</v>
+        <v>0.2432566340809572</v>
       </c>
       <c r="Q4">
-        <v>0.37137409338</v>
+        <v>0.5311683821883334</v>
       </c>
       <c r="R4">
-        <v>3.34236684042</v>
+        <v>4.780515439695001</v>
       </c>
       <c r="S4">
-        <v>0.01698735483490506</v>
+        <v>0.02158178691760038</v>
       </c>
       <c r="T4">
-        <v>0.01698735483490506</v>
+        <v>0.02158178691760038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>9.942261</v>
       </c>
       <c r="I5">
-        <v>0.708795549719184</v>
+        <v>0.6680231260820571</v>
       </c>
       <c r="J5">
-        <v>0.7087955497191839</v>
+        <v>0.6680231260820572</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -735,28 +735,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.377313</v>
+        <v>0.4401443333333333</v>
       </c>
       <c r="N5">
-        <v>1.131939</v>
+        <v>1.320433</v>
       </c>
       <c r="O5">
-        <v>0.08069727054576252</v>
+        <v>0.08872023983698565</v>
       </c>
       <c r="P5">
-        <v>0.08069727054576252</v>
+        <v>0.08872023983698567</v>
       </c>
       <c r="Q5">
-        <v>1.250448108231</v>
+        <v>1.458676613223667</v>
       </c>
       <c r="R5">
-        <v>11.254032974079</v>
+        <v>13.128089519013</v>
       </c>
       <c r="S5">
-        <v>0.05719786623732146</v>
+        <v>0.05926717196265301</v>
       </c>
       <c r="T5">
-        <v>0.05719786623732145</v>
+        <v>0.05926717196265303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>9.942261</v>
       </c>
       <c r="I6">
-        <v>0.708795549719184</v>
+        <v>0.6680231260820571</v>
       </c>
       <c r="J6">
-        <v>0.7087955497191839</v>
+        <v>0.6680231260820572</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>9.942261</v>
       </c>
       <c r="O6">
-        <v>0.708795549719184</v>
+        <v>0.6680231260820571</v>
       </c>
       <c r="P6">
-        <v>0.7087955497191839</v>
+        <v>0.6680231260820572</v>
       </c>
       <c r="Q6">
         <v>10.983172643569</v>
@@ -815,10 +815,10 @@
         <v>98.84855379212101</v>
       </c>
       <c r="S6">
-        <v>0.5023911313017203</v>
+        <v>0.4462548969804439</v>
       </c>
       <c r="T6">
-        <v>0.5023911313017201</v>
+        <v>0.446254896980444</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>9.942261</v>
       </c>
       <c r="I7">
-        <v>0.708795549719184</v>
+        <v>0.6680231260820571</v>
       </c>
       <c r="J7">
-        <v>0.7087955497191839</v>
+        <v>0.6680231260820572</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,28 +859,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.98426</v>
+        <v>1.206805</v>
       </c>
       <c r="N7">
-        <v>2.95278</v>
+        <v>3.620415</v>
       </c>
       <c r="O7">
-        <v>0.2105071797350534</v>
+        <v>0.2432566340809571</v>
       </c>
       <c r="P7">
-        <v>0.2105071797350534</v>
+        <v>0.2432566340809572</v>
       </c>
       <c r="Q7">
-        <v>3.26192327062</v>
+        <v>3.999456762035001</v>
       </c>
       <c r="R7">
-        <v>29.35730943558</v>
+        <v>35.995110858315</v>
       </c>
       <c r="S7">
-        <v>0.1492065521801423</v>
+        <v>0.16250105713896</v>
       </c>
       <c r="T7">
-        <v>0.1492065521801423</v>
+        <v>0.1625010571389601</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.98426</v>
+        <v>1.206805</v>
       </c>
       <c r="H8">
-        <v>2.95278</v>
+        <v>3.620415</v>
       </c>
       <c r="I8">
-        <v>0.2105071797350534</v>
+        <v>0.2432566340809571</v>
       </c>
       <c r="J8">
-        <v>0.2105071797350534</v>
+        <v>0.2432566340809572</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -921,28 +921,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.377313</v>
+        <v>0.4401443333333333</v>
       </c>
       <c r="N8">
-        <v>1.131939</v>
+        <v>1.320433</v>
       </c>
       <c r="O8">
-        <v>0.08069727054576252</v>
+        <v>0.08872023983698565</v>
       </c>
       <c r="P8">
-        <v>0.08069727054576252</v>
+        <v>0.08872023983698567</v>
       </c>
       <c r="Q8">
-        <v>0.37137409338</v>
+        <v>0.5311683821883334</v>
       </c>
       <c r="R8">
-        <v>3.34236684042</v>
+        <v>4.780515439695001</v>
       </c>
       <c r="S8">
-        <v>0.01698735483490506</v>
+        <v>0.02158178691760038</v>
       </c>
       <c r="T8">
-        <v>0.01698735483490506</v>
+        <v>0.02158178691760038</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.98426</v>
+        <v>1.206805</v>
       </c>
       <c r="H9">
-        <v>2.95278</v>
+        <v>3.620415</v>
       </c>
       <c r="I9">
-        <v>0.2105071797350534</v>
+        <v>0.2432566340809571</v>
       </c>
       <c r="J9">
-        <v>0.2105071797350534</v>
+        <v>0.2432566340809572</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,22 +989,22 @@
         <v>9.942261</v>
       </c>
       <c r="O9">
-        <v>0.708795549719184</v>
+        <v>0.6680231260820571</v>
       </c>
       <c r="P9">
-        <v>0.7087955497191839</v>
+        <v>0.6680231260820572</v>
       </c>
       <c r="Q9">
-        <v>3.26192327062</v>
+        <v>3.999456762035001</v>
       </c>
       <c r="R9">
-        <v>29.35730943558</v>
+        <v>35.995110858315</v>
       </c>
       <c r="S9">
-        <v>0.1492065521801423</v>
+        <v>0.16250105713896</v>
       </c>
       <c r="T9">
-        <v>0.1492065521801423</v>
+        <v>0.1625010571389601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.98426</v>
+        <v>1.206805</v>
       </c>
       <c r="H10">
-        <v>2.95278</v>
+        <v>3.620415</v>
       </c>
       <c r="I10">
-        <v>0.2105071797350534</v>
+        <v>0.2432566340809571</v>
       </c>
       <c r="J10">
-        <v>0.2105071797350534</v>
+        <v>0.2432566340809572</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1045,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.98426</v>
+        <v>1.206805</v>
       </c>
       <c r="N10">
-        <v>2.95278</v>
+        <v>3.620415</v>
       </c>
       <c r="O10">
-        <v>0.2105071797350534</v>
+        <v>0.2432566340809571</v>
       </c>
       <c r="P10">
-        <v>0.2105071797350534</v>
+        <v>0.2432566340809572</v>
       </c>
       <c r="Q10">
-        <v>0.9687677476000001</v>
+        <v>1.456378308025</v>
       </c>
       <c r="R10">
-        <v>8.718909728400002</v>
+        <v>13.107404772225</v>
       </c>
       <c r="S10">
-        <v>0.04431327272000608</v>
+        <v>0.05917379002439668</v>
       </c>
       <c r="T10">
-        <v>0.04431327272000608</v>
+        <v>0.05917379002439669</v>
       </c>
     </row>
   </sheetData>
